--- a/Projeto Individual/Documentação/Backlog.xlsx
+++ b/Projeto Individual/Documentação/Backlog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d395134aa82dc9ae/Documentos/SPtech/Git/Projeto individual DESKTOP/FlashApp/Projeto Individual/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{051C343D-B3D5-4F3F-AD23-DCC5760B2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA82C12-D761-4E39-9474-6187796608FA}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{051C343D-B3D5-4F3F-AD23-DCC5760B2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C643ADA-97D7-4040-AE8B-9C864AAFD2E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -123,15 +123,6 @@
     <t>Um botão escrito "Entrar", vinculada a uma função de login ao clicar.</t>
   </si>
   <si>
-    <t>RF006</t>
-  </si>
-  <si>
-    <t>Permanecer conectado</t>
-  </si>
-  <si>
-    <t>O sistema de login deve possuir funcionalidade de permanecer o usuário logado, caso ele deseje</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
     <t>RF020</t>
   </si>
   <si>
-    <t>RF021</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -273,24 +261,6 @@
     <t>RF025</t>
   </si>
   <si>
-    <t>RNF026</t>
-  </si>
-  <si>
-    <t>Gráfico de Barras comparando o tempo Médio de Processamento de cada tipo de Produto</t>
-  </si>
-  <si>
-    <t>Na dashboard haverá um gráfico de barras que irá exibir o tempo médio que cada tipo de produto leva para passar dos sensores posicionados no início das linhas de produção até o sensor posicionado no final da linha de produção.</t>
-  </si>
-  <si>
-    <t>RNF027</t>
-  </si>
-  <si>
-    <t>Gráfico de Linha com tendência de Produção por Hora</t>
-  </si>
-  <si>
-    <t>Na dashboard haverá um gráfico mostra o volume de produtos processados por hora, identificando padrões de produção e assim detectando momentos de alta e baixa produção em diferentes linhas de produção.</t>
-  </si>
-  <si>
     <t>RNF029</t>
   </si>
   <si>
@@ -339,39 +309,12 @@
     <t>RF033</t>
   </si>
   <si>
-    <t>Sensor HC-SR04 (Sensor ultrassônico)</t>
-  </si>
-  <si>
-    <t>Detectar a presença de objetos</t>
-  </si>
-  <si>
-    <t>Quando o objeto se aproximar do sensor, ele retornará</t>
-  </si>
-  <si>
-    <t>o valor da distância em relação ao sensor.</t>
-  </si>
-  <si>
     <t>RF034</t>
   </si>
   <si>
-    <t>Encaminhar dados para o banco</t>
-  </si>
-  <si>
-    <t>de dados</t>
-  </si>
-  <si>
-    <t>O sensor deve encaminhar os dados para o banco de dados através de nossa API.</t>
-  </si>
-  <si>
     <t>RF035</t>
   </si>
   <si>
-    <t>Calcular e encaminhar tamanho do objeto através de sua proximidade</t>
-  </si>
-  <si>
-    <t>O sensor deve com os dados de proximidade, também calcular o tamanho do item que está na esteira e assim processar o tamanho do produto.</t>
-  </si>
-  <si>
     <t>As opções de direcionamento da barra de navegação devem incluir: Home, Sobre mim, Benefícios, Login e Cadastro</t>
   </si>
   <si>
@@ -399,18 +342,9 @@
     <t>No fim da página deverá conter um rodapé com informações de copyright</t>
   </si>
   <si>
-    <t>Sessão de filtros</t>
-  </si>
-  <si>
-    <t>Deverá conter filtros para que o usuário possa selecionar o usuário possa selecionar um deck em específico para visualizar as informações, e uma barra de pesquisa, caso deseje pesquisar por nome.</t>
-  </si>
-  <si>
     <t>KPIs</t>
   </si>
   <si>
-    <t>Deverác onter uma seção com 3 filtros, sendo eles: Total de usuários que mostra o total de usuários cadastrados na plataforma, Total de decks e flashcards de acordo com o usuário logado, e o total de decks concluídos, de acordo com o usuário logado</t>
-  </si>
-  <si>
     <t>Gráfico de linhas</t>
   </si>
   <si>
@@ -430,13 +364,109 @@
   </si>
   <si>
     <t>Na dashboard deverá conter um gráfico de barras que irá conter a quantidade de FlashCards concluídos por dia</t>
+  </si>
+  <si>
+    <t>Deverác onter uma seção com 3 filtros, sendo eles: Deck mais estudado que mostra o deck mais estudado de acordoc om o usuário logado, Total de decks e flashcards de acordo com o usuário logado, e o total de decks concluídos, de acordo com o usuário logado</t>
+  </si>
+  <si>
+    <t>RF036</t>
+  </si>
+  <si>
+    <t>RF037</t>
+  </si>
+  <si>
+    <t>Tela decks</t>
+  </si>
+  <si>
+    <t>Criação de deck</t>
+  </si>
+  <si>
+    <t>Campo de título para inserção do título do deck e botão de confirmar a criação</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Filtrar de acordo com todos os decks, somente concluidos e somente em andamento</t>
+  </si>
+  <si>
+    <t>Modificação de decks</t>
+  </si>
+  <si>
+    <t>Marcar um deck como concluído, editar, excluir e estudar o deck sendo redirecionado para a tela de flashcards</t>
+  </si>
+  <si>
+    <t>Carregamento dos decks</t>
+  </si>
+  <si>
+    <t>A pagina deve carregar e mostrar os decks de acordo com o usuário logado</t>
+  </si>
+  <si>
+    <t>Tela flashcards</t>
+  </si>
+  <si>
+    <t>Criação de flash card</t>
+  </si>
+  <si>
+    <t>Campo de título para inserção do título do flashcard, assim como um campo para pergunta e resposta e um botão para confirmar a criação do flash card</t>
+  </si>
+  <si>
+    <t>RF038</t>
+  </si>
+  <si>
+    <t>RF039</t>
+  </si>
+  <si>
+    <t>RF040</t>
+  </si>
+  <si>
+    <t>RF041</t>
+  </si>
+  <si>
+    <t>RF042</t>
+  </si>
+  <si>
+    <t>Modificação de flash cards</t>
+  </si>
+  <si>
+    <t>Editar e excluir um flash card</t>
+  </si>
+  <si>
+    <t>Visualizar pergunta e resposta</t>
+  </si>
+  <si>
+    <t>Ao clicar no botão 'Resposta', a resposta é mostrada na tela</t>
+  </si>
+  <si>
+    <t>Funcionalidade de avaliação por flash card</t>
+  </si>
+  <si>
+    <t>Ao clicar em 'Resposta' o usuário pode avaliar o flash card como 'Lembrei' e 'Esqueci', onde seria de acordo com sua performance no estudo do flash card em específico</t>
+  </si>
+  <si>
+    <t>Carregamento dos flash cards</t>
+  </si>
+  <si>
+    <t>Ao carregar a página de flash cards de acordo com o deck selecionado para estudo, o usuário deve visualizar todos os flash cards linkados ao deck logo que carregar a página</t>
+  </si>
+  <si>
+    <t>RF043</t>
+  </si>
+  <si>
+    <t>Tela minha conta</t>
+  </si>
+  <si>
+    <t>Visualizar os dados cadastrados</t>
+  </si>
+  <si>
+    <t>Seção onde o usuário pode ver seus dados cadastrados, como nome e e-mail. Além disso trocar de senha inserindo a senha atual, a nova e uma confirmação nova senha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +526,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,12 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -695,9 +725,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,14 +750,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -747,12 +771,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,16 +786,44 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,102 +832,74 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1202,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1214,8 +1232,8 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>121</v>
+      <c r="B2" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -1239,84 +1257,84 @@
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="26">
         <v>3</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="26">
         <v>1</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>77</v>
+      <c r="J3" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="13" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1339,21 +1357,21 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1369,14 +1387,14 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1399,90 +1417,90 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4">
-        <v>13</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="E10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="26">
+        <v>5</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="31">
-        <v>5</v>
-      </c>
-      <c r="I11" s="31">
-        <v>2</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>120</v>
-      </c>
+      <c r="B13" s="39"/>
       <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1496,67 +1514,67 @@
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="H15" s="4">
         <v>8</v>
@@ -1565,60 +1583,60 @@
         <v>3</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H16" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="45" t="s">
         <v>55</v>
       </c>
+      <c r="B17" s="42"/>
       <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -1627,20 +1645,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -1657,14 +1675,14 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -1687,14 +1705,14 @@
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
@@ -1717,19 +1735,19 @@
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
@@ -1738,152 +1756,152 @@
         <v>13</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="E22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="22">
         <v>8</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="61" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="J22" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="58">
+      <c r="B24" s="43"/>
+      <c r="C24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="4">
         <v>8</v>
-      </c>
-      <c r="I23" s="58">
-        <v>1</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4">
-        <v>5</v>
       </c>
       <c r="I24" s="4">
         <v>3</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="B25" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H25" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1895,21 +1913,26 @@
       <c r="H26" s="4">
         <v>21</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
       <c r="J26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>127</v>
+        <v>76</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -1923,21 +1946,23 @@
       <c r="H27" s="4">
         <v>21</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
       <c r="J27" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -1955,352 +1980,399 @@
         <v>2</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>13</v>
+      <c r="D29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4">
-        <v>21</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
       <c r="J29" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="4">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="G30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="26">
+        <v>3</v>
+      </c>
+      <c r="I30" s="26">
+        <v>1</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="4">
-        <v>21</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="4">
-        <v>21</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>92</v>
+      <c r="F33" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
       <c r="J33" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="31">
+      <c r="B35" s="46"/>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="14" t="s">
+      <c r="J35" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>92</v>
+      <c r="F36" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
       <c r="J36" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="53"/>
+        <v>114</v>
+      </c>
+      <c r="B37" s="46"/>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
       <c r="J37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4">
         <v>5</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="4">
         <v>1</v>
       </c>
-      <c r="J38" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="31" t="s">
+      <c r="J38" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="31">
-        <v>13</v>
-      </c>
-      <c r="I40" s="31">
+      <c r="H39" s="4">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J40" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-    </row>
-    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="29"/>
+      <c r="J39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="46"/>
       <c r="C42" s="5" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>12</v>
@@ -2309,68 +2381,116 @@
         <v>13</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H42" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I42" s="4">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="4">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
+  <mergeCells count="32">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projeto Individual/Documentação/Backlog.xlsx
+++ b/Projeto Individual/Documentação/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d395134aa82dc9ae/Documentos/SPtech/Git/Projeto individual DESKTOP/FlashApp/Projeto Individual/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{051C343D-B3D5-4F3F-AD23-DCC5760B2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C643ADA-97D7-4040-AE8B-9C864AAFD2E9}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{051C343D-B3D5-4F3F-AD23-DCC5760B2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6AA5B2-1A21-4A53-9207-A4F659F15AE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Modificação de flash cards</t>
   </si>
   <si>
-    <t>Editar e excluir um flash card</t>
-  </si>
-  <si>
     <t>Visualizar pergunta e resposta</t>
   </si>
   <si>
@@ -460,6 +457,12 @@
   </si>
   <si>
     <t>Seção onde o usuário pode ver seus dados cadastrados, como nome e e-mail. Além disso trocar de senha inserindo a senha atual, a nova e uma confirmação nova senha</t>
+  </si>
+  <si>
+    <t>Editar um flashcard</t>
+  </si>
+  <si>
+    <t>Excluir um flashcard</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,10 +805,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,96 +895,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutro" xfId="1" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,10 +1202,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1261,80 +1261,80 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="33">
         <v>3</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="33">
         <v>1</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1421,54 +1421,54 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="F10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="33">
         <v>5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="33">
         <v>2</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="44" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1500,7 +1500,7 @@
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1622,7 +1622,7 @@
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="4" t="s">
         <v>97</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="A22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="22" t="s">
         <v>68</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="8" t="s">
         <v>99</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="16" t="s">
         <v>103</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -1894,7 +1894,7 @@
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="12" t="s">
         <v>106</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="5" t="s">
         <v>109</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="5" t="s">
         <v>111</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2016,54 +2016,54 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="33">
         <v>3</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="33">
         <v>1</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="4" t="s">
         <v>91</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="51" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2155,7 +2155,7 @@
       <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="4" t="s">
         <v>119</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="A36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="4" t="s">
         <v>121</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="4" t="s">
         <v>123</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="A38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="52" t="s">
         <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2277,7 +2277,7 @@
       <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="4" t="s">
         <v>126</v>
       </c>
@@ -2304,15 +2304,15 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>12</v>
@@ -2333,25 +2333,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="4" t="s">
-        <v>135</v>
-      </c>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
@@ -2363,16 +2359,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>12</v>
@@ -2395,14 +2391,14 @@
     </row>
     <row r="43" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="B43" s="52"/>
       <c r="C43" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>12</v>
@@ -2425,43 +2421,86 @@
     </row>
     <row r="44" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>32</v>
+        <v>132</v>
+      </c>
+      <c r="B44" s="53"/>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="56" t="s">
-        <v>37</v>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
       </c>
       <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="4">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
         <v>4</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
+  <mergeCells count="34">
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
@@ -2473,22 +2512,11 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
